--- a/URL List.xlsx
+++ b/URL List.xlsx
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>URL TIMEOUT</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>URL TIMEOUT</t>
         </is>
       </c>
     </row>

--- a/URL List.xlsx
+++ b/URL List.xlsx
@@ -849,11 +849,7 @@
           <t>https://www.idc.com/getdoc.jsp?containerId=US49776022&amp;pageType=PRINTFRIENDLY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>leave as is</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3781,7 +3777,11 @@
           <t>https://learn.microsoft.com/assessments/561d1647-3a8a-43b8-b749-fa5cdd29a8f1/</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>leave as is</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -3807,7 +3807,11 @@
           <t>https://learn.microsoft.com/assessments/561d1647-3a8a-43b8-b749-fa5cdd29a8f1/</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>leave as is</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
